--- a/users.xlsx
+++ b/users.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/users.xlsx
+++ b/users.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>CodeplexID</t>
   </si>
@@ -66,13 +66,25 @@
   </si>
   <si>
     <t>Gorgio</t>
+  </si>
+  <si>
+    <t>lf343</t>
+  </si>
+  <si>
+    <t>Linjian Fan</t>
+  </si>
+  <si>
+    <t>bolunpeng</t>
+  </si>
+  <si>
+    <t>Bolun Peng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +99,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,10 +127,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +415,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,15 +530,23 @@
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
